--- a/dataset_prep/speed_data.xlsx
+++ b/dataset_prep/speed_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OrigiN\WorkArea\Git_projects\codeitup_team11\dataset_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26F4807-AEE9-47DA-9701-CF02792C2DD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC8AC4F-45DD-4FF5-B90E-18A43FDD8D05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20m" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="88">
   <si>
     <t>County</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>Power</t>
+  </si>
+  <si>
+    <t>Coin</t>
+  </si>
+  <si>
+    <t>Coins</t>
   </si>
 </sst>
 </file>
@@ -629,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +648,7 @@
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -658,8 +664,11 @@
       <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -675,8 +684,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -692,8 +704,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -709,8 +724,11 @@
       <c r="E4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -726,8 +744,11 @@
       <c r="E5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -743,8 +764,11 @@
       <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -760,8 +784,11 @@
       <c r="E7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -777,8 +804,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -794,8 +824,11 @@
       <c r="E9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -811,8 +844,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -828,8 +864,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -845,8 +884,11 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -862,8 +904,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -879,8 +924,11 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -896,8 +944,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -913,8 +964,11 @@
       <c r="E16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -930,8 +984,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -947,8 +1004,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -964,8 +1024,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -981,8 +1044,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -998,8 +1064,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1015,8 +1084,11 @@
       <c r="E22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1032,8 +1104,11 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -1049,8 +1124,11 @@
       <c r="E24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -1066,8 +1144,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -1083,8 +1164,11 @@
       <c r="E26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
@@ -1098,6 +1182,9 @@
         <v>83</v>
       </c>
       <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
         <v>10</v>
       </c>
     </row>
@@ -1108,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E9A6F0-5406-4D1D-860C-5527834D86BD}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="C2" sqref="C2:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1207,7 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1133,8 +1220,11 @@
       <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1147,8 +1237,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1161,8 +1254,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1175,8 +1271,11 @@
       <c r="D4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1189,8 +1288,11 @@
       <c r="D5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1203,8 +1305,11 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1217,8 +1322,11 @@
       <c r="D7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1231,8 +1339,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1245,8 +1356,11 @@
       <c r="D9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1259,8 +1373,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1273,8 +1390,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1287,8 +1407,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1301,8 +1424,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1315,8 +1441,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1329,8 +1458,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -1343,8 +1475,11 @@
       <c r="D16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -1357,8 +1492,11 @@
       <c r="D17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1371,8 +1509,11 @@
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1385,8 +1526,11 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1399,8 +1543,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -1413,8 +1560,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1427,8 +1577,11 @@
       <c r="D22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1441,8 +1594,11 @@
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -1455,8 +1611,11 @@
       <c r="D24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -1469,8 +1628,11 @@
       <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -1483,8 +1645,11 @@
       <c r="D26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
@@ -1495,6 +1660,9 @@
         <v>83</v>
       </c>
       <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
         <v>10</v>
       </c>
     </row>
@@ -1505,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848A02F9-D433-40E2-BCEC-35288F38CB8B}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C2" sqref="C2:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,7 +1685,7 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1530,8 +1698,11 @@
       <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1544,8 +1715,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1558,8 +1732,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1572,8 +1749,11 @@
       <c r="D4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1586,8 +1766,11 @@
       <c r="D5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1600,8 +1783,11 @@
       <c r="D6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1614,8 +1800,11 @@
       <c r="D7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1628,8 +1817,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1834,11 @@
       <c r="D9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1656,8 +1851,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1670,8 +1868,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1684,8 +1885,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1698,8 +1902,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1712,8 +1919,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1726,8 +1936,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -1740,8 +1953,11 @@
       <c r="D16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -1754,8 +1970,11 @@
       <c r="D17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1768,8 +1987,11 @@
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -1782,8 +2004,11 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1796,8 +2021,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -1810,8 +2038,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -1824,8 +2055,11 @@
       <c r="D22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -1838,8 +2072,11 @@
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -1852,8 +2089,11 @@
       <c r="D24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -1866,8 +2106,11 @@
       <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -1880,8 +2123,11 @@
       <c r="D26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
@@ -1892,6 +2138,9 @@
         <v>83</v>
       </c>
       <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
         <v>10</v>
       </c>
     </row>
@@ -1902,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8869C8CF-47A6-47D5-B2F2-8899BA796854}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,7 +2163,7 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1927,8 +2176,11 @@
       <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1941,8 +2193,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1955,8 +2210,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1969,8 +2227,11 @@
       <c r="D4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1983,8 +2244,11 @@
       <c r="D5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1997,8 +2261,11 @@
       <c r="D6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -2011,8 +2278,11 @@
       <c r="D7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -2025,8 +2295,11 @@
       <c r="D8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -2039,8 +2312,11 @@
       <c r="D9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -2053,8 +2329,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -2067,8 +2346,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -2081,8 +2363,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2380,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -2109,8 +2397,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -2123,8 +2414,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -2137,8 +2431,11 @@
       <c r="D16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -2151,8 +2448,11 @@
       <c r="D17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -2165,8 +2465,11 @@
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -2179,8 +2482,11 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -2193,8 +2499,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -2207,8 +2516,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -2221,8 +2533,11 @@
       <c r="D22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -2235,8 +2550,11 @@
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2567,11 @@
       <c r="D24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -2263,8 +2584,11 @@
       <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>49</v>
       </c>
@@ -2277,8 +2601,11 @@
       <c r="D26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>51</v>
       </c>
@@ -2291,8 +2618,11 @@
       <c r="D27">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2306,14 +2636,2101 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DB0760-0FD0-4FC1-84F5-7137E6575D68}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="3">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="3">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="3">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="3">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="3">
+        <v>30</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="3">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="3">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="3">
+        <v>30</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="3">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="3">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="3">
+        <v>30</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="3">
+        <v>30</v>
+      </c>
+      <c r="D47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="3">
+        <v>30</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="3">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="3">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="3">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="3">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="3">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="3">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="3">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="3">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="3">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="3">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="3">
+        <v>50</v>
+      </c>
+      <c r="D61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="3">
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="3">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="3">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="3">
+        <v>50</v>
+      </c>
+      <c r="D66" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="3">
+        <v>50</v>
+      </c>
+      <c r="D67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="3">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3">
+        <v>50</v>
+      </c>
+      <c r="D69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="3">
+        <v>50</v>
+      </c>
+      <c r="D70" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="3">
+        <v>50</v>
+      </c>
+      <c r="D71" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="3">
+        <v>50</v>
+      </c>
+      <c r="D72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="3">
+        <v>50</v>
+      </c>
+      <c r="D73" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="3">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="3">
+        <v>50</v>
+      </c>
+      <c r="D75" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="3">
+        <v>50</v>
+      </c>
+      <c r="D76" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="3">
+        <v>50</v>
+      </c>
+      <c r="D77" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="3">
+        <v>50</v>
+      </c>
+      <c r="D78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="3">
+        <v>50</v>
+      </c>
+      <c r="D79" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="3">
+        <v>75</v>
+      </c>
+      <c r="D80" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="3">
+        <v>75</v>
+      </c>
+      <c r="D81" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="3">
+        <v>75</v>
+      </c>
+      <c r="D82" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="3">
+        <v>75</v>
+      </c>
+      <c r="D83" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="3">
+        <v>75</v>
+      </c>
+      <c r="D84" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="3">
+        <v>75</v>
+      </c>
+      <c r="D85" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="3">
+        <v>75</v>
+      </c>
+      <c r="D86" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="3">
+        <v>75</v>
+      </c>
+      <c r="D87" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="3">
+        <v>75</v>
+      </c>
+      <c r="D88" t="s">
+        <v>82</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="3">
+        <v>75</v>
+      </c>
+      <c r="D89" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="3">
+        <v>75</v>
+      </c>
+      <c r="D90" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="3">
+        <v>75</v>
+      </c>
+      <c r="D91" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="3">
+        <v>75</v>
+      </c>
+      <c r="D92" t="s">
+        <v>82</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="3">
+        <v>75</v>
+      </c>
+      <c r="D93" t="s">
+        <v>82</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="3">
+        <v>75</v>
+      </c>
+      <c r="D94" t="s">
+        <v>83</v>
+      </c>
+      <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="3">
+        <v>75</v>
+      </c>
+      <c r="D95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" s="3">
+        <v>75</v>
+      </c>
+      <c r="D96" t="s">
+        <v>82</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" s="3">
+        <v>75</v>
+      </c>
+      <c r="D97" t="s">
+        <v>82</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" s="3">
+        <v>75</v>
+      </c>
+      <c r="D98" t="s">
+        <v>82</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="3">
+        <v>75</v>
+      </c>
+      <c r="D99" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="3">
+        <v>75</v>
+      </c>
+      <c r="D100" t="s">
+        <v>83</v>
+      </c>
+      <c r="E100">
+        <v>10</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="3">
+        <v>75</v>
+      </c>
+      <c r="D101" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" s="3">
+        <v>75</v>
+      </c>
+      <c r="D102" t="s">
+        <v>83</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="3">
+        <v>75</v>
+      </c>
+      <c r="D103" t="s">
+        <v>82</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" s="3">
+        <v>75</v>
+      </c>
+      <c r="D104" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104">
+        <v>10</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" s="3">
+        <v>75</v>
+      </c>
+      <c r="D105" t="s">
+        <v>83</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>